--- a/apps/load_data/2018/09/PLMOVMAE.xlsx
+++ b/apps/load_data/2018/09/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2018\HHY0918\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2018\HHY0918\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4F5467-A127-4955-89A4-EBD45A53F48A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C282DF8-8FD4-452C-A540-90BAA6BF31B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$269</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$269</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10643" uniqueCount="2863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10630" uniqueCount="2861">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6964,9 +6965,6 @@
     <t>0062A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>1047    134900    1349001081    326625    3266251082    175875    1758752001         0     424602006     46200     462002026    329243    3292432027      3068      30682029      1500      15002086      2500      25002180       250       250</t>
   </si>
   <si>
@@ -8426,9 +8424,6 @@
   </si>
   <si>
     <t>0146A         1</t>
-  </si>
-  <si>
-    <t>S/M</t>
   </si>
   <si>
     <t>6501080BIHTE003</t>
@@ -8617,7 +8612,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -9457,10 +9452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD208" sqref="AC208:AD260"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45600,12 +45597,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>103</v>
       </c>
@@ -45670,10 +45662,10 @@
         <v>111</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2314</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2315</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>114</v>
@@ -45685,7 +45677,7 @@
         <v>155</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>118</v>
@@ -45706,13 +45698,13 @@
         <v>107</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="CE208" s="1" t="s">
-        <v>2319</v>
       </c>
     </row>
     <row r="209" spans="1:83" x14ac:dyDescent="0.25">
@@ -45747,19 +45739,19 @@
         <v>93</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2321</v>
       </c>
-      <c r="N209" s="1" t="s">
+      <c r="O209" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P209" s="1" t="s">
         <v>2322</v>
-      </c>
-      <c r="O209" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P209" s="1" t="s">
-        <v>2323</v>
       </c>
       <c r="Q209" s="3">
         <v>27241</v>
@@ -45785,12 +45777,7 @@
       <c r="AB209" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>103</v>
       </c>
@@ -45837,7 +45824,7 @@
         <v>107</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BB209" s="1">
         <v>9</v>
@@ -45855,10 +45842,10 @@
         <v>111</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2326</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>114</v>
@@ -45870,13 +45857,13 @@
         <v>99</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BS209" s="3">
         <v>36949</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>118</v>
@@ -45900,13 +45887,13 @@
         <v>107</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="CD209" s="1" t="s">
         <v>1927</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -45941,19 +45928,19 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="N210" s="1" t="s">
+      <c r="O210" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P210" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="O210" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P210" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="Q210" s="3">
         <v>25223</v>
@@ -45979,12 +45966,7 @@
       <c r="AB210" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -46031,7 +46013,7 @@
         <v>107</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BB210" s="1">
         <v>9</v>
@@ -46052,10 +46034,10 @@
         <v>111</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2336</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2337</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>114</v>
@@ -46067,13 +46049,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BS210" s="3">
         <v>36825</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>118</v>
@@ -46097,13 +46079,13 @@
         <v>107</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -46138,19 +46120,19 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="N211" s="1" t="s">
+      <c r="O211" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P211" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="O211" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P211" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="Q211" s="3">
         <v>27018</v>
@@ -46173,12 +46155,7 @@
       <c r="AA211" s="1">
         <v>0</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -46228,7 +46205,7 @@
         <v>107</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BB211" s="1">
         <v>9</v>
@@ -46246,7 +46223,7 @@
         <v>111</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>606</v>
@@ -46258,7 +46235,7 @@
         <v>102</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>118</v>
@@ -46276,13 +46253,13 @@
         <v>107</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46317,19 +46294,19 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="N212" s="1" t="s">
+      <c r="O212" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P212" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="O212" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P212" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="Q212" s="3">
         <v>29037</v>
@@ -46352,12 +46329,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -46407,7 +46379,7 @@
         <v>107</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BB212" s="1">
         <v>9</v>
@@ -46425,7 +46397,7 @@
         <v>111</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1789</v>
@@ -46437,7 +46409,7 @@
         <v>102</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>118</v>
@@ -46458,10 +46430,10 @@
         <v>681</v>
       </c>
       <c r="CD212" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="CE212" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46496,19 +46468,19 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="N213" s="1" t="s">
+      <c r="O213" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P213" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="O213" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P213" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="Q213" s="3">
         <v>26647</v>
@@ -46531,12 +46503,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -46586,7 +46553,7 @@
         <v>107</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BB213" s="1">
         <v>9</v>
@@ -46604,7 +46571,7 @@
         <v>111</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>606</v>
@@ -46616,7 +46583,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>118</v>
@@ -46634,13 +46601,13 @@
         <v>107</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="CD213" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2368</v>
-      </c>
-      <c r="CD213" s="1" t="s">
-        <v>2368</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46675,19 +46642,19 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="N214" s="1" t="s">
+      <c r="O214" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P214" s="1" t="s">
         <v>2372</v>
-      </c>
-      <c r="O214" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P214" s="1" t="s">
-        <v>2373</v>
       </c>
       <c r="Q214" s="3">
         <v>25405</v>
@@ -46716,12 +46683,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -46768,7 +46730,7 @@
         <v>107</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BB214" s="1">
         <v>9</v>
@@ -46777,7 +46739,7 @@
         <v>18</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>109</v>
@@ -46789,10 +46751,10 @@
         <v>111</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>114</v>
@@ -46804,13 +46766,13 @@
         <v>115</v>
       </c>
       <c r="BR214" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BS214" s="3">
         <v>35243</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>118</v>
@@ -46828,13 +46790,13 @@
         <v>107</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="CD214" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CD214" s="1" t="s">
+      <c r="CE214" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -46869,19 +46831,19 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="N215" s="1" t="s">
+      <c r="O215" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P215" s="1" t="s">
         <v>2385</v>
-      </c>
-      <c r="O215" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P215" s="1" t="s">
-        <v>2386</v>
       </c>
       <c r="Q215" s="3">
         <v>28845</v>
@@ -46904,12 +46866,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -46959,7 +46916,7 @@
         <v>107</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BB215" s="1">
         <v>9</v>
@@ -46977,7 +46934,7 @@
         <v>111</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>606</v>
@@ -46989,7 +46946,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>118</v>
@@ -47007,13 +46964,13 @@
         <v>107</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -47048,19 +47005,19 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="N216" s="1" t="s">
+      <c r="O216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P216" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="O216" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P216" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="Q216" s="3">
         <v>21425</v>
@@ -47083,12 +47040,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -47138,7 +47090,7 @@
         <v>107</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BB216" s="1">
         <v>9</v>
@@ -47156,7 +47108,7 @@
         <v>111</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>606</v>
@@ -47171,7 +47123,7 @@
         <v>155</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>118</v>
@@ -47189,13 +47141,13 @@
         <v>107</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2401</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -47230,19 +47182,19 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="N217" s="1" t="s">
+      <c r="O217" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P217" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="O217" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P217" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="Q217" s="3">
         <v>23039</v>
@@ -47265,12 +47217,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -47317,7 +47264,7 @@
         <v>107</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BB217" s="1">
         <v>9</v>
@@ -47326,7 +47273,7 @@
         <v>18</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>109</v>
@@ -47338,10 +47285,10 @@
         <v>111</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>114</v>
@@ -47353,13 +47300,13 @@
         <v>218</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BS217" s="3">
         <v>34307</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>118</v>
@@ -47377,13 +47324,13 @@
         <v>107</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>443</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47418,19 +47365,19 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="N218" s="1" t="s">
+      <c r="O218" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P218" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="O218" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P218" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="Q218" s="3">
         <v>23286</v>
@@ -47456,12 +47403,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -47511,7 +47453,7 @@
         <v>107</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BB218" s="1">
         <v>9</v>
@@ -47532,7 +47474,7 @@
         <v>111</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>1860</v>
@@ -47544,7 +47486,7 @@
         <v>102</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>118</v>
@@ -47565,13 +47507,13 @@
         <v>107</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47606,19 +47548,19 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="N219" s="1" t="s">
+      <c r="O219" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P219" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="O219" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P219" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="Q219" s="3">
         <v>26907</v>
@@ -47641,12 +47583,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2313</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -47693,7 +47630,7 @@
         <v>107</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BB219" s="1">
         <v>9</v>
@@ -47714,10 +47651,10 @@
         <v>111</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>114</v>
@@ -47729,13 +47666,13 @@
         <v>115</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BS219" s="3">
         <v>35950</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>118</v>
@@ -47753,13 +47690,13 @@
         <v>107</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>1752</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -47794,19 +47731,19 @@
         <v>162</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="N220" s="1" t="s">
+      <c r="O220" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P220" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="O220" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P220" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="Q220" s="3">
         <v>26349</v>
@@ -47851,7 +47788,7 @@
         <v>0</v>
       </c>
       <c r="AN220" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="AO220" s="1">
         <v>0</v>
@@ -47896,13 +47833,13 @@
         <v>111</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>118</v>
@@ -47926,10 +47863,10 @@
         <v>2210</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -47964,19 +47901,19 @@
         <v>162</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="N221" s="1" t="s">
+      <c r="O221" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P221" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="O221" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P221" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="Q221" s="3">
         <v>30589</v>
@@ -48024,7 +47961,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -48069,13 +48006,13 @@
         <v>111</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>118</v>
@@ -48096,13 +48033,13 @@
         <v>107</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="CD221" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CE221" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2453</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -48137,19 +48074,19 @@
         <v>162</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="N222" s="1" t="s">
+      <c r="O222" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P222" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="O222" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P222" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="Q222" s="3">
         <v>27354</v>
@@ -48197,7 +48134,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -48242,13 +48179,13 @@
         <v>111</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>118</v>
@@ -48269,13 +48206,13 @@
         <v>107</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48310,19 +48247,19 @@
         <v>162</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="N223" s="1" t="s">
+      <c r="O223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P223" s="1" t="s">
         <v>2465</v>
-      </c>
-      <c r="O223" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P223" s="1" t="s">
-        <v>2466</v>
       </c>
       <c r="Q223" s="3">
         <v>13756</v>
@@ -48412,13 +48349,13 @@
         <v>111</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>118</v>
@@ -48439,10 +48376,10 @@
         <v>107</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="CD223" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="CE223" s="1" t="s">
         <v>205</v>
@@ -48480,19 +48417,19 @@
         <v>162</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="N224" s="1" t="s">
+      <c r="O224" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P224" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="O224" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P224" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="Q224" s="3">
         <v>26074</v>
@@ -48540,7 +48477,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -48585,19 +48522,19 @@
         <v>111</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BW224" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BX224" s="1">
         <v>0</v>
@@ -48615,13 +48552,13 @@
         <v>107</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="225" spans="1:83" x14ac:dyDescent="0.25">
@@ -48656,19 +48593,19 @@
         <v>162</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="N225" s="1" t="s">
+      <c r="O225" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P225" s="1" t="s">
         <v>2480</v>
-      </c>
-      <c r="O225" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P225" s="1" t="s">
-        <v>2481</v>
       </c>
       <c r="Q225" s="3">
         <v>28808</v>
@@ -48713,7 +48650,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -48758,13 +48695,13 @@
         <v>111</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>118</v>
@@ -48785,13 +48722,13 @@
         <v>107</v>
       </c>
       <c r="CC225" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="CD225" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CE225" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="CD225" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="CE225" s="1" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -48826,10 +48763,10 @@
         <v>93</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="L226" s="1" t="s">
-        <v>2488</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>229</v>
@@ -48895,7 +48832,7 @@
         <v>16</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BX226" s="1">
         <v>0</v>
@@ -48913,7 +48850,7 @@
         <v>233</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -48942,16 +48879,16 @@
         <v>91</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>229</v>
@@ -49020,7 +48957,7 @@
         <v>0</v>
       </c>
       <c r="BZ227" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="CA227" s="1" t="s">
         <v>120</v>
@@ -49032,7 +48969,7 @@
         <v>233</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -49067,19 +49004,19 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="N228" s="1" t="s">
+      <c r="O228" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P228" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="O228" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P228" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="Q228" s="3">
         <v>28642</v>
@@ -49151,7 +49088,7 @@
         <v>107</v>
       </c>
       <c r="AZ228" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BB228" s="1">
         <v>9</v>
@@ -49169,7 +49106,7 @@
         <v>111</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>114</v>
@@ -49181,7 +49118,7 @@
         <v>155</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>118</v>
@@ -49199,13 +49136,13 @@
         <v>107</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>443</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49240,19 +49177,19 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="N229" s="1" t="s">
+      <c r="O229" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P229" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="O229" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P229" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="Q229" s="3">
         <v>28239</v>
@@ -49321,7 +49258,7 @@
         <v>107</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BB229" s="1">
         <v>9</v>
@@ -49339,7 +49276,7 @@
         <v>111</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BI229" s="1" t="s">
         <v>1797</v>
@@ -49354,13 +49291,13 @@
         <v>218</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BS229" s="3">
         <v>36099</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>118</v>
@@ -49378,13 +49315,13 @@
         <v>107</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="CD229" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="CD229" s="1" t="s">
+      <c r="CE229" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>2513</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49419,19 +49356,19 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="N230" s="1" t="s">
+      <c r="O230" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P230" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="O230" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P230" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="Q230" s="3">
         <v>25589</v>
@@ -49500,7 +49437,7 @@
         <v>107</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BB230" s="1">
         <v>9</v>
@@ -49518,10 +49455,10 @@
         <v>111</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>114</v>
@@ -49533,13 +49470,13 @@
         <v>99</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BS230" s="3">
         <v>37735</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>118</v>
@@ -49557,13 +49494,13 @@
         <v>107</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2524</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2525</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49598,19 +49535,19 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="N231" s="1" t="s">
+      <c r="O231" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P231" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="O231" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P231" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="Q231" s="3">
         <v>29170</v>
@@ -49682,7 +49619,7 @@
         <v>107</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BB231" s="1">
         <v>9</v>
@@ -49700,7 +49637,7 @@
         <v>111</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1099</v>
@@ -49712,7 +49649,7 @@
         <v>102</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>118</v>
@@ -49730,13 +49667,13 @@
         <v>107</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>864</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -49771,19 +49708,19 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="N232" s="1" t="s">
+      <c r="O232" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P232" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="O232" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P232" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="Q232" s="3">
         <v>27250</v>
@@ -49810,7 +49747,7 @@
         <v>103</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>1858</v>
@@ -49855,7 +49792,7 @@
         <v>107</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BB232" s="1">
         <v>9</v>
@@ -49873,7 +49810,7 @@
         <v>111</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1789</v>
@@ -49885,7 +49822,7 @@
         <v>102</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>118</v>
@@ -49906,10 +49843,10 @@
         <v>1555</v>
       </c>
       <c r="CD232" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="CE232" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2544</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -49944,19 +49881,19 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="N233" s="1" t="s">
+      <c r="O233" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P233" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="O233" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P233" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="Q233" s="3">
         <v>27999</v>
@@ -50028,7 +49965,7 @@
         <v>107</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BB233" s="1">
         <v>9</v>
@@ -50046,10 +49983,10 @@
         <v>111</v>
       </c>
       <c r="BH233" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="BI233" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="BI233" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>114</v>
@@ -50058,7 +49995,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>118</v>
@@ -50082,7 +50019,7 @@
         <v>941</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -50117,19 +50054,19 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="N234" s="1" t="s">
+      <c r="O234" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P234" s="1" t="s">
         <v>2556</v>
-      </c>
-      <c r="O234" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P234" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="Q234" s="3">
         <v>29305</v>
@@ -50201,7 +50138,7 @@
         <v>107</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BB234" s="1">
         <v>9</v>
@@ -50219,7 +50156,7 @@
         <v>111</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BI234" s="1" t="s">
         <v>1004</v>
@@ -50231,7 +50168,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>118</v>
@@ -50249,13 +50186,13 @@
         <v>107</v>
       </c>
       <c r="CC234" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="CD234" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="CD234" s="1" t="s">
+      <c r="CE234" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2563</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50290,19 +50227,19 @@
         <v>162</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="N235" s="1" t="s">
+      <c r="O235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P235" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="O235" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P235" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="R235" s="1" t="s">
         <v>131</v>
@@ -50338,7 +50275,7 @@
         <v>0</v>
       </c>
       <c r="AN235" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="AO235" s="1">
         <v>0</v>
@@ -50377,13 +50314,13 @@
         <v>111</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>118</v>
@@ -50401,13 +50338,13 @@
         <v>107</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>305</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50442,19 +50379,19 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="N236" s="1" t="s">
+      <c r="O236" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P236" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="O236" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P236" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="Q236" s="3">
         <v>23125</v>
@@ -50487,7 +50424,7 @@
         <v>42247</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>103</v>
@@ -50541,7 +50478,7 @@
         <v>18</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BE236" s="1" t="s">
         <v>109</v>
@@ -50553,10 +50490,10 @@
         <v>111</v>
       </c>
       <c r="BH236" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>114</v>
@@ -50568,13 +50505,13 @@
         <v>218</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BS236" s="3">
         <v>36580</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>118</v>
@@ -50595,7 +50532,7 @@
         <v>107</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>294</v>
@@ -50636,19 +50573,19 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="N237" s="1" t="s">
+      <c r="O237" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P237" s="1" t="s">
         <v>2585</v>
-      </c>
-      <c r="O237" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P237" s="1" t="s">
-        <v>2586</v>
       </c>
       <c r="Q237" s="3">
         <v>30023</v>
@@ -50735,7 +50672,7 @@
         <v>111</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BI237" s="1" t="s">
         <v>1826</v>
@@ -50750,13 +50687,13 @@
         <v>115</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BS237" s="3">
         <v>37747</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>118</v>
@@ -50780,7 +50717,7 @@
         <v>670</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="238" spans="1:83" x14ac:dyDescent="0.25">
@@ -50815,19 +50752,19 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="N238" s="1" t="s">
+      <c r="O238" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P238" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="O238" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P238" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="Q238" s="3">
         <v>26205</v>
@@ -50914,7 +50851,7 @@
         <v>111</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>114</v>
@@ -50923,7 +50860,7 @@
         <v>102</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>118</v>
@@ -50941,13 +50878,13 @@
         <v>107</v>
       </c>
       <c r="CC238" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="CD238" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="CD238" s="1" t="s">
+      <c r="CE238" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>2599</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -50982,19 +50919,19 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="N239" s="1" t="s">
+      <c r="O239" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P239" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="O239" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P239" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="Q239" s="3">
         <v>31662</v>
@@ -51081,7 +51018,7 @@
         <v>111</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BI239" s="1" t="s">
         <v>916</v>
@@ -51093,7 +51030,7 @@
         <v>102</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>118</v>
@@ -51111,13 +51048,13 @@
         <v>107</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -51152,19 +51089,19 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="N240" s="1" t="s">
+      <c r="O240" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P240" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="O240" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P240" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="Q240" s="3">
         <v>29117</v>
@@ -51251,10 +51188,10 @@
         <v>111</v>
       </c>
       <c r="BH240" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="BI240" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="BI240" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>114</v>
@@ -51266,13 +51203,13 @@
         <v>99</v>
       </c>
       <c r="BR240" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BS240" s="3">
         <v>37334</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>118</v>
@@ -51293,10 +51230,10 @@
         <v>535</v>
       </c>
       <c r="CD240" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="CE240" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -51331,19 +51268,19 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="N241" s="1" t="s">
+      <c r="O241" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P241" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="O241" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P241" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="Q241" s="3">
         <v>30007</v>
@@ -51430,10 +51367,10 @@
         <v>111</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>114</v>
@@ -51445,13 +51382,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BS241" s="3">
         <v>37904</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>118</v>
@@ -51472,10 +51409,10 @@
         <v>941</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2628</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51510,19 +51447,19 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="N242" s="1" t="s">
+      <c r="O242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P242" s="1" t="s">
         <v>2631</v>
-      </c>
-      <c r="O242" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P242" s="1" t="s">
-        <v>2632</v>
       </c>
       <c r="Q242" s="3">
         <v>26221</v>
@@ -51606,7 +51543,7 @@
         <v>111</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BI242" s="1" t="s">
         <v>1099</v>
@@ -51621,13 +51558,13 @@
         <v>115</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BS242" s="3">
         <v>36111</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>118</v>
@@ -51645,13 +51582,13 @@
         <v>107</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>1113</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -51686,19 +51623,19 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="N243" s="1" t="s">
+      <c r="O243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P243" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="O243" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P243" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="Q243" s="3">
         <v>27571</v>
@@ -51785,7 +51722,7 @@
         <v>111</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>397</v>
@@ -51800,13 +51737,13 @@
         <v>115</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BS243" s="3">
         <v>37785</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>118</v>
@@ -51824,13 +51761,13 @@
         <v>107</v>
       </c>
       <c r="CC243" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="CD243" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="CD243" s="1" t="s">
+      <c r="CE243" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="CE243" s="1" t="s">
-        <v>2647</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -51865,19 +51802,19 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="N244" s="1" t="s">
+      <c r="O244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P244" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="O244" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P244" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="Q244" s="3">
         <v>30041</v>
@@ -51964,7 +51901,7 @@
         <v>111</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>114</v>
@@ -51973,7 +51910,7 @@
         <v>102</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>118</v>
@@ -51994,10 +51931,10 @@
         <v>1230</v>
       </c>
       <c r="CD244" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="CE244" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -52032,19 +51969,19 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="N245" s="1" t="s">
+      <c r="O245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P245" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="O245" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P245" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="Q245" s="3">
         <v>30993</v>
@@ -52116,7 +52053,7 @@
         <v>107</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BB245" s="1">
         <v>9</v>
@@ -52134,7 +52071,7 @@
         <v>111</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>114</v>
@@ -52143,7 +52080,7 @@
         <v>102</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>118</v>
@@ -52161,13 +52098,13 @@
         <v>107</v>
       </c>
       <c r="CC245" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="CD245" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="CD245" s="1" t="s">
+      <c r="CE245" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2665</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -52202,19 +52139,19 @@
         <v>93</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="L246" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="L246" s="1" t="s">
+      <c r="N246" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="N246" s="1" t="s">
+      <c r="O246" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P246" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="O246" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P246" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="Q246" s="3">
         <v>30065</v>
@@ -52286,7 +52223,7 @@
         <v>107</v>
       </c>
       <c r="AZ246" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BB246" s="1">
         <v>9</v>
@@ -52304,7 +52241,7 @@
         <v>111</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BI246" s="1" t="s">
         <v>1860</v>
@@ -52316,7 +52253,7 @@
         <v>102</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>118</v>
@@ -52334,13 +52271,13 @@
         <v>107</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="CD246" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="247" spans="1:83" x14ac:dyDescent="0.25">
@@ -52375,19 +52312,19 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="N247" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="N247" s="1" t="s">
+      <c r="O247" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P247" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="O247" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P247" s="1" t="s">
-        <v>2677</v>
       </c>
       <c r="Q247" s="3">
         <v>30033</v>
@@ -52459,7 +52396,7 @@
         <v>107</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BB247" s="1">
         <v>9</v>
@@ -52477,7 +52414,7 @@
         <v>111</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>114</v>
@@ -52486,7 +52423,7 @@
         <v>102</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>118</v>
@@ -52507,10 +52444,10 @@
         <v>1091</v>
       </c>
       <c r="CD247" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="CE247" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>2682</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52545,19 +52482,19 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="N248" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="N248" s="1" t="s">
+      <c r="O248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P248" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="O248" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P248" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="Q248" s="3">
         <v>29411</v>
@@ -52626,7 +52563,7 @@
         <v>107</v>
       </c>
       <c r="AZ248" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="BB248" s="1">
         <v>9</v>
@@ -52647,10 +52584,10 @@
         <v>111</v>
       </c>
       <c r="BH248" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="BI248" s="1" t="s">
         <v>2688</v>
-      </c>
-      <c r="BI248" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>114</v>
@@ -52662,13 +52599,13 @@
         <v>218</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BS248" s="3">
         <v>37513</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>118</v>
@@ -52686,13 +52623,13 @@
         <v>107</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>122</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -52727,19 +52664,19 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="N249" s="1" t="s">
+      <c r="O249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P249" s="1" t="s">
         <v>2696</v>
-      </c>
-      <c r="O249" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P249" s="1" t="s">
-        <v>2697</v>
       </c>
       <c r="Q249" s="3">
         <v>32173</v>
@@ -52823,10 +52760,10 @@
         <v>111</v>
       </c>
       <c r="BH249" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="BI249" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="BI249" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>114</v>
@@ -52838,13 +52775,13 @@
         <v>99</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BS249" s="3">
         <v>41024</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>118</v>
@@ -52862,13 +52799,13 @@
         <v>107</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -52903,19 +52840,19 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="N250" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="N250" s="1" t="s">
+      <c r="O250" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P250" s="1" t="s">
         <v>2707</v>
-      </c>
-      <c r="O250" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P250" s="1" t="s">
-        <v>2708</v>
       </c>
       <c r="Q250" s="3">
         <v>18645</v>
@@ -52942,7 +52879,7 @@
         <v>103</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="AH250" s="1" t="s">
         <v>1858</v>
@@ -52966,28 +52903,28 @@
         <v>97</v>
       </c>
       <c r="AQ250" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="AR250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV250" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY250" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ250" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="AR250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV250" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY250" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ250" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="BB250" s="1">
         <v>9</v>
@@ -53005,7 +52942,7 @@
         <v>111</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="BI250" s="1" t="s">
         <v>1860</v>
@@ -53020,13 +52957,13 @@
         <v>115</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="BS250" s="3">
         <v>34808</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>118</v>
@@ -53044,13 +52981,13 @@
         <v>107</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="CD250" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="CD250" s="1" t="s">
+      <c r="CE250" s="1" t="s">
         <v>2715</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2716</v>
       </c>
     </row>
     <row r="251" spans="1:83" x14ac:dyDescent="0.25">
@@ -53085,19 +53022,19 @@
         <v>93</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="L251" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="L251" s="1" t="s">
+      <c r="N251" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="N251" s="1" t="s">
+      <c r="O251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P251" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="O251" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P251" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="Q251" s="3">
         <v>30408</v>
@@ -53166,7 +53103,7 @@
         <v>107</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BB251" s="1">
         <v>9</v>
@@ -53184,10 +53121,10 @@
         <v>111</v>
       </c>
       <c r="BH251" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="BI251" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="BI251" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>114</v>
@@ -53199,13 +53136,13 @@
         <v>99</v>
       </c>
       <c r="BR251" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="BS251" s="3">
         <v>37336</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>118</v>
@@ -53223,13 +53160,13 @@
         <v>107</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="CD251" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="CD251" s="1" t="s">
+      <c r="CE251" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>2728</v>
       </c>
     </row>
     <row r="252" spans="1:83" x14ac:dyDescent="0.25">
@@ -53264,19 +53201,19 @@
         <v>93</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="L252" s="1" t="s">
+      <c r="N252" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="N252" s="1" t="s">
+      <c r="O252" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P252" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="O252" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P252" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="Q252" s="3">
         <v>28132</v>
@@ -53348,7 +53285,7 @@
         <v>107</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BB252" s="1">
         <v>9</v>
@@ -53366,10 +53303,10 @@
         <v>111</v>
       </c>
       <c r="BH252" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="BI252" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="BI252" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>114</v>
@@ -53378,7 +53315,7 @@
         <v>102</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>118</v>
@@ -53396,13 +53333,13 @@
         <v>107</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="CD252" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="CD252" s="1" t="s">
+      <c r="CE252" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="253" spans="1:83" x14ac:dyDescent="0.25">
@@ -53437,19 +53374,19 @@
         <v>93</v>
       </c>
       <c r="K253" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="L253" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="N253" s="1" t="s">
+      <c r="O253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P253" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="O253" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P253" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="Q253" s="3">
         <v>31743</v>
@@ -53536,7 +53473,7 @@
         <v>111</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>114</v>
@@ -53545,7 +53482,7 @@
         <v>102</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>118</v>
@@ -53563,13 +53500,13 @@
         <v>107</v>
       </c>
       <c r="CC253" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="CD253" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="CD253" s="1" t="s">
+      <c r="CE253" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="CE253" s="1" t="s">
-        <v>2748</v>
       </c>
     </row>
     <row r="254" spans="1:83" x14ac:dyDescent="0.25">
@@ -53604,19 +53541,19 @@
         <v>162</v>
       </c>
       <c r="K254" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="L254" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="N254" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="N254" s="1" t="s">
+      <c r="O254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P254" s="1" t="s">
         <v>2751</v>
-      </c>
-      <c r="O254" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P254" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="R254" s="1" t="s">
         <v>131</v>
@@ -53703,13 +53640,13 @@
         <v>111</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>118</v>
@@ -53727,13 +53664,13 @@
         <v>107</v>
       </c>
       <c r="CC254" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="CD254" s="1" t="s">
         <v>2755</v>
       </c>
-      <c r="CD254" s="1" t="s">
+      <c r="CE254" s="1" t="s">
         <v>2756</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="255" spans="1:83" x14ac:dyDescent="0.25">
@@ -53762,7 +53699,7 @@
         <v>91</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>93</v>
@@ -53771,10 +53708,10 @@
         <v>253</v>
       </c>
       <c r="L255" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="M255" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="N255" s="1" t="s">
         <v>255</v>
@@ -53804,7 +53741,7 @@
         <v>42582</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>103</v>
@@ -53855,10 +53792,10 @@
         <v>257</v>
       </c>
       <c r="BH255" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="BI255" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="BI255" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>114</v>
@@ -53914,7 +53851,7 @@
         <v>124</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>89</v>
@@ -53932,16 +53869,16 @@
         <v>93</v>
       </c>
       <c r="K256" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="L256" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="M256" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="N256" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="Q256" s="3">
         <v>17060</v>
@@ -53974,7 +53911,7 @@
         <v>42628</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>103</v>
@@ -54025,16 +53962,16 @@
         <v>107</v>
       </c>
       <c r="AZ256" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BD256" s="1" t="s">
         <v>231</v>
       </c>
       <c r="BH256" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="BI256" s="1" t="s">
         <v>2770</v>
-      </c>
-      <c r="BI256" s="1" t="s">
-        <v>2771</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>114</v>
@@ -54043,7 +53980,7 @@
         <v>102</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>118</v>
@@ -54067,7 +54004,7 @@
         <v>122</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="257" spans="1:83" x14ac:dyDescent="0.25">
@@ -54084,7 +54021,7 @@
         <v>124</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>107</v>
@@ -54096,22 +54033,22 @@
         <v>91</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K257" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L257" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="L257" s="1" t="s">
+      <c r="M257" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="Q257" s="3">
         <v>26864</v>
@@ -54141,7 +54078,7 @@
         <v>42735</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>103</v>
@@ -54192,7 +54129,7 @@
         <v>99</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>114</v>
@@ -54204,13 +54141,13 @@
         <v>218</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BS257" s="3">
         <v>102</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>118</v>
@@ -54231,13 +54168,13 @@
         <v>107</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="CD257" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="CD257" s="1" t="s">
+      <c r="CE257" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>2785</v>
       </c>
     </row>
     <row r="258" spans="1:83" x14ac:dyDescent="0.25">
@@ -54272,10 +54209,10 @@
         <v>93</v>
       </c>
       <c r="K258" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="L258" s="1" t="s">
         <v>2786</v>
-      </c>
-      <c r="L258" s="1" t="s">
-        <v>2787</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>97</v>
@@ -54356,7 +54293,7 @@
         <v>233</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="259" spans="1:83" x14ac:dyDescent="0.25">
@@ -54391,16 +54328,16 @@
         <v>93</v>
       </c>
       <c r="K259" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L259" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>2789</v>
-      </c>
-      <c r="M259" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="Q259" s="3">
         <v>25379</v>
@@ -54430,7 +54367,7 @@
         <v>39800</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>240</v>
@@ -54481,7 +54418,7 @@
         <v>99</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>114</v>
@@ -54493,13 +54430,13 @@
         <v>229</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BS259" s="3">
         <v>35915</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>118</v>
@@ -54514,7 +54451,7 @@
         <v>241</v>
       </c>
       <c r="BZ259" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="CA259" s="1" t="s">
         <v>120</v>
@@ -54529,7 +54466,7 @@
         <v>455</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="260" spans="1:83" x14ac:dyDescent="0.25">
@@ -54564,19 +54501,19 @@
         <v>93</v>
       </c>
       <c r="K260" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="L260" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="N260" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="N260" s="1" t="s">
+      <c r="O260" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P260" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="O260" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P260" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="Q260" s="3">
         <v>23750</v>
@@ -54605,12 +54542,7 @@
       <c r="AA260" s="1">
         <v>0</v>
       </c>
-      <c r="AC260" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD260" s="1" t="s">
-        <v>2801</v>
-      </c>
+      <c r="AC260" s="3"/>
       <c r="AF260" s="1" t="s">
         <v>103</v>
       </c>
@@ -54660,7 +54592,7 @@
         <v>107</v>
       </c>
       <c r="AZ260" s="1" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="BB260" s="1">
         <v>9</v>
@@ -54681,7 +54613,7 @@
         <v>111</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="BI260" s="1" t="s">
         <v>1362</v>
@@ -54693,7 +54625,7 @@
         <v>102</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>118</v>
@@ -54717,10 +54649,10 @@
         <v>1135</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="261" spans="1:83" x14ac:dyDescent="0.25">
@@ -54755,10 +54687,10 @@
         <v>93</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>97</v>
@@ -54839,7 +54771,7 @@
         <v>233</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="262" spans="1:83" x14ac:dyDescent="0.25">
@@ -54874,16 +54806,16 @@
         <v>93</v>
       </c>
       <c r="K262" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>2809</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="M262" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="Q262" s="3">
         <v>17470</v>
@@ -54913,7 +54845,7 @@
         <v>43100</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>103</v>
@@ -54964,7 +54896,7 @@
         <v>107</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>114</v>
@@ -54973,7 +54905,7 @@
         <v>102</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>118</v>
@@ -54988,7 +54920,7 @@
         <v>97</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>120</v>
@@ -54997,13 +54929,13 @@
         <v>107</v>
       </c>
       <c r="CC262" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="CE262" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="CD262" s="1" t="s">
-        <v>2815</v>
-      </c>
-      <c r="CE262" s="1" t="s">
-        <v>2816</v>
       </c>
     </row>
     <row r="263" spans="1:83" x14ac:dyDescent="0.25">
@@ -55038,7 +54970,7 @@
         <v>93</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="L263" s="1" t="s">
         <v>2289</v>
@@ -55157,16 +55089,16 @@
         <v>93</v>
       </c>
       <c r="K264" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="N264" s="1" t="s">
         <v>2818</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>2819</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="Q264" s="3">
         <v>23356</v>
@@ -55193,7 +55125,7 @@
         <v>43105</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>103</v>
@@ -55241,7 +55173,7 @@
         <v>107</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>114</v>
@@ -55253,13 +55185,13 @@
         <v>99</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="BS264" s="3">
         <v>34412</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>118</v>
@@ -55277,13 +55209,13 @@
         <v>107</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>2299</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="265" spans="1:83" x14ac:dyDescent="0.25">
@@ -55318,19 +55250,19 @@
         <v>162</v>
       </c>
       <c r="K265" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="L265" s="1" t="s">
+      <c r="O265" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P265" s="1" t="s">
         <v>2828</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>2829</v>
-      </c>
-      <c r="O265" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P265" s="1" t="s">
-        <v>2830</v>
       </c>
       <c r="Q265" s="3">
         <v>29466</v>
@@ -55420,13 +55352,13 @@
         <v>111</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>118</v>
@@ -55444,13 +55376,13 @@
         <v>107</v>
       </c>
       <c r="CC265" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="CD265" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="CE265" s="1" t="s">
         <v>2833</v>
-      </c>
-      <c r="CD265" s="1" t="s">
-        <v>2834</v>
-      </c>
-      <c r="CE265" s="1" t="s">
-        <v>2835</v>
       </c>
     </row>
     <row r="266" spans="1:83" x14ac:dyDescent="0.25">
@@ -55485,10 +55417,10 @@
         <v>93</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>97</v>
@@ -55575,7 +55507,7 @@
         <v>233</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="267" spans="1:83" x14ac:dyDescent="0.25">
@@ -55610,16 +55542,16 @@
         <v>93</v>
       </c>
       <c r="K267" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="N267" s="1" t="s">
         <v>2838</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>2839</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>2840</v>
       </c>
       <c r="Q267" s="3">
         <v>17726</v>
@@ -55652,7 +55584,7 @@
         <v>43312</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>240</v>
@@ -55703,10 +55635,10 @@
         <v>107</v>
       </c>
       <c r="AZ267" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>114</v>
@@ -55715,7 +55647,7 @@
         <v>102</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>118</v>
@@ -55733,10 +55665,10 @@
         <v>107</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>885</v>
@@ -55774,16 +55706,16 @@
         <v>93</v>
       </c>
       <c r="K268" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="N268" s="1" t="s">
         <v>2846</v>
-      </c>
-      <c r="L268" s="1" t="s">
-        <v>2847</v>
-      </c>
-      <c r="M268" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>2848</v>
       </c>
       <c r="Q268" s="3">
         <v>22645</v>
@@ -55810,7 +55742,7 @@
         <v>43298</v>
       </c>
       <c r="AD268" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="AF268" s="1" t="s">
         <v>103</v>
@@ -55858,10 +55790,10 @@
         <v>107</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="BI268" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>114</v>
@@ -55870,13 +55802,13 @@
         <v>99</v>
       </c>
       <c r="BR268" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="BS268" s="3">
         <v>35209</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>118</v>
@@ -55897,10 +55829,10 @@
         <v>1620</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="269" spans="1:83" x14ac:dyDescent="0.25">
@@ -55935,16 +55867,16 @@
         <v>93</v>
       </c>
       <c r="K269" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="N269" s="1" t="s">
         <v>2855</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>2856</v>
-      </c>
-      <c r="M269" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="N269" s="1" t="s">
-        <v>2857</v>
       </c>
       <c r="Q269" s="3">
         <v>17041</v>
@@ -55971,7 +55903,7 @@
         <v>42735</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>103</v>
@@ -56022,7 +55954,7 @@
         <v>107</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>114</v>
@@ -56031,7 +55963,7 @@
         <v>102</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>118</v>
@@ -56052,16 +55984,17 @@
         <v>107</v>
       </c>
       <c r="CC269" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="CD269" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="CE269" s="1" t="s">
         <v>2860</v>
-      </c>
-      <c r="CD269" s="1" t="s">
-        <v>2861</v>
-      </c>
-      <c r="CE269" s="1" t="s">
-        <v>2862</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF269" xr:uid="{A8E7E110-A9D9-4564-B5B9-45C512F02E71}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>